--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail11 Features.xlsx
@@ -6978,7 +6978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6989,29 +6989,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7032,115 +7030,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7157,72 +7145,66 @@
         <v>5.237838782160395e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.231093841253982</v>
+        <v>1.751895550825278e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.125405140999862</v>
+        <v>1.887460908916734e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.751895550825278e-07</v>
+        <v>-0.03249193629343766</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.887460908916734e-06</v>
+        <v>0.09621599983754955</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.03249193629343766</v>
+        <v>0.01030106754670404</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.09621599983754955</v>
+        <v>1.912634153572171</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01030106754670404</v>
+        <v>3.50628726931185</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.947420415027213</v>
+        <v>6.317561302582684</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.50628726931185</v>
+        <v>8.831372666170927e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.317561302582684</v>
+        <v>15820840107.46844</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.831372666170927e-18</v>
+        <v>7.579260475577697e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>15820840107.46844</v>
+        <v>2210.48358540951</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.579260475577697e-09</v>
+        <v>0.0001107393524839143</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2210.48358540951</v>
+        <v>8.538642568197668</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001107393524839143</v>
+        <v>1.321679276403463</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.538642568197668</v>
+        <v>0.008073830878956873</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.321679276403463</v>
+        <v>4.267657022119802</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008073830878956873</v>
+        <v>0.9634145437774885</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.267657022119802</v>
+        <v>0.9369634764907215</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9634145437774885</v>
+        <v>171</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9369634764907215</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>3.267389534178602</v>
       </c>
     </row>
@@ -7237,72 +7219,66 @@
         <v>5.383010059451856e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.2102623809248538</v>
+        <v>1.774905099650259e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.16888725545309</v>
+        <v>1.885563001174093e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.774905099650259e-07</v>
+        <v>-0.03856667583703167</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.885563001174093e-06</v>
+        <v>0.07718603877562247</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.03856667583703167</v>
+        <v>0.007438228855355731</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.07718603877562247</v>
+        <v>1.918650560066114</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.007438228855355731</v>
+        <v>3.26521340225118</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.952795976470351</v>
+        <v>6.309372758825062</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.26521340225118</v>
+        <v>8.854310923763992e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.309372758825062</v>
+        <v>15772649171.49704</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>8.854310923763992e-18</v>
+        <v>7.613069586716241e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>15772649171.49704</v>
+        <v>2202.744144062539</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.613069586716241e-09</v>
+        <v>0.0001084484279396671</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2202.744144062539</v>
+        <v>9.464754897633592</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001084484279396671</v>
+        <v>1.27564628100139</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.464754897633592</v>
+        <v>0.009714982095121897</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.27564628100139</v>
+        <v>4.45242950575206</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009714982095121897</v>
+        <v>0.9625961995524488</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.45242950575206</v>
+        <v>0.923514644592132</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9625961995524488</v>
+        <v>165</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.923514644592132</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>3.939640445811528</v>
       </c>
     </row>
@@ -7317,72 +7293,66 @@
         <v>5.509801729978711e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1759040842413656</v>
+        <v>1.80002843079501e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.198446822173064</v>
+        <v>1.883328654326251e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.80002843079501e-07</v>
+        <v>-0.04326988831151763</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.883328654326251e-06</v>
+        <v>0.06217070865665077</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04326988831151763</v>
+        <v>0.005732796635723344</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.06217070865665077</v>
+        <v>1.922790329822585</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.005732796635723344</v>
+        <v>3.388272861150187</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.954221336547132</v>
+        <v>5.838318753769991</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.388272861150187</v>
+        <v>1.034073803816091e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.838318753769991</v>
+        <v>13436750077.74187</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.034073803816091e-17</v>
+        <v>8.936420728400523e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>13436750077.74187</v>
+        <v>1866.981502442803</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.936420728400523e-09</v>
+        <v>9.716064407070066e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1866.981502442803</v>
+        <v>9.146426892768755</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.716064407070066e-05</v>
+        <v>1.255593030343847</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.146426892768755</v>
+        <v>0.008128180136849874</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.255593030343847</v>
+        <v>4.691937281436891</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008128180136849874</v>
+        <v>0.9614765800145151</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>4.691937281436891</v>
+        <v>0.9668898413989413</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9614765800145151</v>
+        <v>139</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9668898413989413</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.322806378275621</v>
       </c>
     </row>
@@ -7397,72 +7367,66 @@
         <v>5.611677280497192e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1380106428657454</v>
+        <v>1.828731484575932e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.210324727626659</v>
+        <v>1.880799045211411e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.828731484575932e-07</v>
+        <v>-0.04756559812781501</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.880799045211411e-06</v>
+        <v>0.04730591034523878</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04756559812781501</v>
+        <v>0.004496863341926769</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.04730591034523878</v>
+        <v>1.911887951682096</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.004496863341926769</v>
+        <v>3.318374841755424</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.948151281027424</v>
+        <v>5.73446239430108</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.318374841755424</v>
+        <v>1.071869030413833e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.73446239430108</v>
+        <v>12442980407.11257</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.071869030413833e-17</v>
+        <v>9.556803251545134e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>12442980407.11257</v>
+        <v>1659.550825055969</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.556803251545134e-09</v>
+        <v>9.631420418014625e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1659.550825055969</v>
+        <v>7.726780770968563</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.631420418014625e-05</v>
+        <v>1.373432611747145</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.726780770968563</v>
+        <v>0.005750260520426534</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.373432611747145</v>
+        <v>4.643757965611586</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005750260520426534</v>
+        <v>0.9608105450702449</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.643757965611586</v>
+        <v>0.972732185786338</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9608105450702449</v>
+        <v>133</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.972732185786338</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>3.741085411117144</v>
       </c>
     </row>
@@ -7477,72 +7441,66 @@
         <v>5.684784544665696e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1042107409587602</v>
+        <v>1.858608189034849e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.209626170331846</v>
+        <v>1.878005082795644e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.858608189034849e-07</v>
+        <v>-0.0510888905479976</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.878005082795644e-06</v>
+        <v>0.03427691059642351</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0510888905479976</v>
+        <v>0.003783620108152626</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.03427691059642351</v>
+        <v>1.910419736254112</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.003783620108152626</v>
+        <v>3.445963344070151</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.946316168596315</v>
+        <v>5.925425767082631</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.445963344070151</v>
+        <v>1.003894367761805e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.925425767082631</v>
+        <v>13259802776.78437</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.003894367761805e-17</v>
+        <v>8.972611713949902e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>13259802776.78437</v>
+        <v>1765.070866475015</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.972611713949902e-09</v>
+        <v>9.882045603947085e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1765.070866475015</v>
+        <v>8.029883614241889</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>9.882045603947085e-05</v>
+        <v>1.273916717155384</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.029883614241889</v>
+        <v>0.006371847234397392</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.273916717155384</v>
+        <v>4.414856585276406</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006371847234397392</v>
+        <v>0.962242887911161</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.414856585276406</v>
+        <v>0.9683967927013361</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.962242887911161</v>
+        <v>172</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9683967927013361</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>172</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.272466057140011</v>
       </c>
     </row>
@@ -7557,72 +7515,66 @@
         <v>5.73188962232568e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.07809052285055942</v>
+        <v>1.887926967643252e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.205685814604171</v>
+        <v>1.875015424909929e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.887926967643252e-07</v>
+        <v>-0.05343505707108635</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.875015424909929e-06</v>
+        <v>0.02617389687756384</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05343505707108635</v>
+        <v>0.003540113209638068</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.02617389687756384</v>
+        <v>1.91275042790123</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003540113209638068</v>
+        <v>3.286732197054583</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.945652548254147</v>
+        <v>5.945277714029899</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.286732197054583</v>
+        <v>9.972013297990098e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.945277714029899</v>
+        <v>13291828446.33244</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.972013297990098e-18</v>
+        <v>8.979706251367447e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>13291828446.33244</v>
+        <v>1761.782548162674</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.979706251367447e-09</v>
+        <v>0.0001039054905520732</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1761.782548162674</v>
+        <v>8.677178449520326</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001039054905520732</v>
+        <v>1.234682997684109</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.677178449520326</v>
+        <v>0.007823400347752165</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.234682997684109</v>
+        <v>4.253867641766373</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007823400347752165</v>
+        <v>0.9627127642903135</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.253867641766373</v>
+        <v>0.9855341223722281</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9627127642903135</v>
+        <v>180</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9855341223722281</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.091510976495059</v>
       </c>
     </row>
@@ -7637,72 +7589,66 @@
         <v>5.758341145174305e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.05975146064690574</v>
+        <v>1.916569572275436e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.204667194587864</v>
+        <v>1.871893146254494e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.916569572275436e-07</v>
+        <v>-0.05512806225094811</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.871893146254494e-06</v>
+        <v>0.02083771360956377</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05512806225094811</v>
+        <v>0.003473424903509533</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.02083771360956377</v>
+        <v>1.91875484782492</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.003473424903509533</v>
+        <v>3.125484836503916</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.947667306585433</v>
+        <v>5.930401558048645</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.125484836503916</v>
+        <v>1.002210477412608e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.930401558048645</v>
+        <v>13785753021.24261</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.002210477412608e-17</v>
+        <v>8.685616185803634e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>13785753021.24261</v>
+        <v>1904.670809333887</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>8.685616185803634e-09</v>
+        <v>0.0001011173383600246</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1904.670809333887</v>
+        <v>9.040333333155333</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001011173383600246</v>
+        <v>1.206796405348822</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.040333333155333</v>
+        <v>0.008264080089924932</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.206796405348822</v>
+        <v>4.412047717219878</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008264080089924932</v>
+        <v>0.9627101734644629</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.412047717219878</v>
+        <v>0.9744520829741069</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9627101734644629</v>
+        <v>206</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9744520829741069</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>3.594861497587956</v>
       </c>
     </row>
@@ -7717,72 +7663,66 @@
         <v>5.768173996724811e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.04802431182599729</v>
+        <v>1.940748505997298e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.209835934817634</v>
+        <v>1.868683383676328e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.940748505997298e-07</v>
+        <v>-0.0560716280733469</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.868683383676328e-06</v>
+        <v>0.01835019357770394</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.0560716280733469</v>
+        <v>0.003481083026525725</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.01835019357770394</v>
+        <v>1.921443955923731</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.003481083026525725</v>
+        <v>3.102264706314679</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.946796275245845</v>
+        <v>6.81229245569696</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.102264706314679</v>
+        <v>1.201296920123832e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.81229245569696</v>
+        <v>11606782950.50979</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.201296920123832e-17</v>
+        <v>1.030656698574102e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>11606782950.50979</v>
+        <v>1618.356102729501</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.030656698574102e-08</v>
+        <v>0.0001065904370466505</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1618.356102729501</v>
+        <v>8.847104789729041</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001065904370466505</v>
+        <v>1.382546238843699</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.847104789729041</v>
+        <v>0.008342968148465387</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.382546238843699</v>
+        <v>4.677897626803387</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008342968148465387</v>
+        <v>0.9633009735702116</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.677897626803387</v>
+        <v>0.9860949235485013</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9633009735702116</v>
+        <v>206</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9860949235485013</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>4.032541720518543</v>
       </c>
     </row>
@@ -7797,72 +7737,66 @@
         <v>5.765871022036338e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03942174736128033</v>
+        <v>1.948048441614875e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.221361290356559</v>
+        <v>1.865440410209862e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.948048441614875e-07</v>
+        <v>-0.056305347886982</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.865440410209862e-06</v>
+        <v>0.01796053757656668</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.056305347886982</v>
+        <v>0.003493219731029625</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.01796053757656668</v>
+        <v>1.925557664950796</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003493219731029625</v>
+        <v>2.907580741641302</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.9480852990074</v>
+        <v>6.330463041719783</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.907580741641302</v>
+        <v>1.391124427683769e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.330463041719783</v>
+        <v>10076935734.83367</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.391124427683769e-17</v>
+        <v>1.186714061997422e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>10076935734.83367</v>
+        <v>1412.612205849027</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.186714061997422e-08</v>
+        <v>0.0001428699661112037</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1412.612205849027</v>
+        <v>9.916602081657912</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001428699661112037</v>
+        <v>1.561627082677062</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.916602081657912</v>
+        <v>0.0140496891467895</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.561627082677062</v>
+        <v>4.542184679431442</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0140496891467895</v>
+        <v>0.9618978189674866</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.542184679431442</v>
+        <v>0.9715583919919317</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9618978189674866</v>
+        <v>205</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9715583919919317</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.952337171474951</v>
       </c>
     </row>
@@ -7877,72 +7811,66 @@
         <v>5.752209536738917e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.0321671299737086</v>
+        <v>1.948574923081093e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.239811646391323</v>
+        <v>1.862193003507373e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.948574923081093e-07</v>
+        <v>-0.05645341048319955</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.862193003507373e-06</v>
+        <v>0.01797419702084378</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05645341048319955</v>
+        <v>0.003510442697453584</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.01797419702084378</v>
+        <v>1.919407066336496</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003510442697453584</v>
+        <v>2.706049473932211</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.944454279804184</v>
+        <v>6.382670009835811</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.706049473932211</v>
+        <v>1.368460130385225e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.382670009835811</v>
+        <v>10549286243.28582</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.368460130385225e-17</v>
+        <v>1.136967712611481e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>10549286243.28582</v>
+        <v>1522.92424984872</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.136967712611481e-08</v>
+        <v>0.0001210221183200756</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1522.92424984872</v>
+        <v>11.56398762888993</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001210221183200756</v>
+        <v>1.226363444945536</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.56398762888993</v>
+        <v>0.01618378078588076</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.226363444945536</v>
+        <v>4.578140096499872</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01618378078588076</v>
+        <v>0.961906132403394</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.578140096499872</v>
+        <v>0.9403318002011443</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.961906132403394</v>
+        <v>191</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9403318002011443</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>191</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>4.143824216381595</v>
       </c>
     </row>
@@ -7957,72 +7885,66 @@
         <v>5.726001127801287e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.02651577978048393</v>
+        <v>1.939797226739484e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.267145348193889</v>
+        <v>1.858950247921854e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.939797226739484e-07</v>
+        <v>-0.05645829361161858</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.858950247921854e-06</v>
+        <v>0.01850370731689514</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05645829361161858</v>
+        <v>0.003530186664393517</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.01850370731689514</v>
+        <v>1.922383731491581</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003530186664393517</v>
+        <v>2.779733467009812</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.944060593810465</v>
+        <v>6.313408055396482</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.779733467009812</v>
+        <v>1.205763129025583e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.313408055396482</v>
+        <v>11835644850.35665</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.205763129025583e-17</v>
+        <v>1.011985445850649e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>11835644850.35665</v>
+        <v>1689.063002869974</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.011985445850649e-08</v>
+        <v>0.0001054448155901988</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1689.063002869974</v>
+        <v>11.23470329788075</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001054448155901988</v>
+        <v>1.105153898391475</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.23470329788075</v>
+        <v>0.01330909259255427</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.105153898391475</v>
+        <v>4.345394051855056</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01330909259255427</v>
+        <v>0.9609594807115408</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.345394051855056</v>
+        <v>0.9669001880355487</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9609594807115408</v>
+        <v>206</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9669001880355487</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>3.692330249040753</v>
       </c>
     </row>
@@ -8037,72 +7959,66 @@
         <v>5.691371499197021e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.02056230933680874</v>
+        <v>1.913407161508206e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.300321265162566</v>
+        <v>1.855737086778174e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.913407161508206e-07</v>
+        <v>-0.05603062130467638</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.855737086778174e-06</v>
+        <v>0.01934937773160017</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05603062130467638</v>
+        <v>0.003513890945105661</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.01934937773160017</v>
+        <v>1.933069900443315</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003513890945105661</v>
+        <v>3.324282188341112</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.945021495725282</v>
+        <v>6.321778898934438</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.324282188341112</v>
+        <v>1.202572074014503e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>6.321778898934438</v>
+        <v>11881201532.62679</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.202572074014503e-17</v>
+        <v>1.012987709743465e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>11881201532.62679</v>
+        <v>1697.586213858144</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.012987709743465e-08</v>
+        <v>0.0001107292867926187</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1697.586213858144</v>
+        <v>8.976846807598054</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001107292867926187</v>
+        <v>1.243562388821806</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.976846807598054</v>
+        <v>0.008922984332216633</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.243562388821806</v>
+        <v>4.231797181751451</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.008922984332216633</v>
+        <v>0.9618469289362382</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.231797181751451</v>
+        <v>0.9538478417259293</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9618469289362382</v>
+        <v>206</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9538478417259293</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>206</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>2.984789532994693</v>
       </c>
     </row>
@@ -8117,72 +8033,66 @@
         <v>5.652615340726291e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.01175230496544152</v>
+        <v>1.874280842668564e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.334700835552755</v>
+        <v>1.852579212879152e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.874280842668564e-07</v>
+        <v>-0.05526198465513592</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.852579212879152e-06</v>
+        <v>0.02010571405228947</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05526198465513592</v>
+        <v>0.003458030349764563</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.02010571405228947</v>
+        <v>1.937467355512478</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003458030349764563</v>
+        <v>3.211143304995784</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.950763359073634</v>
+        <v>6.327796357223084</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.211143304995784</v>
+        <v>1.200285974360591e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.327796357223084</v>
+        <v>11721988182.71945</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.200285974360591e-17</v>
+        <v>1.02758160354611e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>11721988182.71945</v>
+        <v>1649.253026559836</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.02758160354611e-08</v>
+        <v>0.0001146970792621135</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1649.253026559836</v>
+        <v>7.939005052084908</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001146970792621135</v>
+        <v>1.423011449658719</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.939005052084908</v>
+        <v>0.007229104711906385</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.423011449658719</v>
+        <v>4.262628478671614</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.007229104711906385</v>
+        <v>0.9614547991814588</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.262628478671614</v>
+        <v>0.995787762184866</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9614547991814588</v>
+        <v>223</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.995787762184866</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>2.923333484071572</v>
       </c>
     </row>
@@ -8197,72 +8107,66 @@
         <v>5.612252041414326e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.001608841819488436</v>
+        <v>1.828123541681887e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.366617869436585</v>
+        <v>1.849493309958589e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.828123541681887e-07</v>
+        <v>-0.05428967295228981</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.849493309958589e-06</v>
+        <v>0.02046543984287784</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05428967295228981</v>
+        <v>0.003365964725707058</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.02046543984287784</v>
+        <v>1.935760818979225</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003365964725707058</v>
+        <v>2.983700691307736</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.954527762239831</v>
+        <v>6.237991932004626</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.983700691307736</v>
+        <v>1.235094256443552e-17</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>6.237991932004626</v>
+        <v>10693136180.46936</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.235094256443552e-17</v>
+        <v>1.121857089789567e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>10693136180.46936</v>
+        <v>1412.245818767034</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.121857089789567e-08</v>
+        <v>0.0001142729590502164</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1412.245818767034</v>
+        <v>8.272525581390015</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001142729590502164</v>
+        <v>1.484653354591256</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.272525581390015</v>
+        <v>0.007820233327518503</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.484653354591256</v>
+        <v>4.37708781080896</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.007820233327518503</v>
+        <v>0.9603970287929129</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.37708781080896</v>
+        <v>1.029012201038976</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9603970287929129</v>
+        <v>230</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.029012201038976</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>3.125535406836046</v>
       </c>
     </row>
@@ -8277,72 +8181,66 @@
         <v>5.572428600101532e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.02041361953231822</v>
+        <v>1.778452741016932e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.392845233995019</v>
+        <v>1.846487233858025e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.778452741016932e-07</v>
+        <v>-0.05319185782929274</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.846487233858025e-06</v>
+        <v>0.02059301871539874</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05319185782929274</v>
+        <v>0.003253179772846075</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.02059301871539874</v>
+        <v>1.927958544353128</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003253179772846075</v>
+        <v>2.893415267460048</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.95246159951926</v>
+        <v>6.097235233689196</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.893415267460048</v>
+        <v>1.292777599748188e-17</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6.097235233689196</v>
+        <v>10309370006.38024</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.292777599748188e-17</v>
+        <v>1.157404052214962e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>10309370006.38024</v>
+        <v>1374.004237470776</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.157404052214962e-08</v>
+        <v>9.802313039559983e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1374.004237470776</v>
+        <v>10.63284781744655</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.802313039559983e-05</v>
+        <v>1.205760605996091</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.63284781744655</v>
+        <v>0.0110822454290865</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.205760605996091</v>
+        <v>4.548331914395211</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0110822454290865</v>
+        <v>0.9594844253119872</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.548331914395211</v>
+        <v>1.024375145600332</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9594844253119872</v>
+        <v>242</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.024375145600332</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>242</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>3.637571374794408</v>
       </c>
     </row>
@@ -8357,72 +8255,66 @@
         <v>5.532826090537582e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.04511351781537754</v>
+        <v>1.725616239656469e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.412018158006437</v>
+        <v>1.843568348351215e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.725616239656469e-07</v>
+        <v>-0.05190035040275139</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.843568348351215e-06</v>
+        <v>0.02127330887993988</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05190035040275139</v>
+        <v>0.003145981484629778</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.02127330887993988</v>
+        <v>1.923461562853202</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003145981484629778</v>
+        <v>2.908952544280527</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.952545997840756</v>
+        <v>5.709171384357397</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.908952544280527</v>
+        <v>1.870297061691152e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>5.709171384357397</v>
+        <v>7041752576.496602</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.870297061691152e-17</v>
+        <v>1.69715637776877e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>7041752576.496602</v>
+        <v>927.4107256587678</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.69715637776877e-08</v>
+        <v>9.880156468308052e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>927.4107256587678</v>
+        <v>11.46935362248146</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.880156468308052e-05</v>
+        <v>1.211966788599815</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.46935362248146</v>
+        <v>0.01299695779264581</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.211966788599815</v>
+        <v>4.465434226801904</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01299695779264581</v>
+        <v>0.9595527616689772</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.465434226801904</v>
+        <v>1.084349537507055</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9595527616689772</v>
+        <v>242</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.084349537507055</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>242</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>3.38682369934524</v>
       </c>
     </row>
@@ -8437,72 +8329,66 @@
         <v>5.490463828391669e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.07592017066970443</v>
+        <v>1.677700680707842e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.42426656776139</v>
+        <v>1.840747972110976e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.677700680707842e-07</v>
+        <v>-0.05041086891839778</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.840747972110976e-06</v>
+        <v>0.02320134740764386</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05041086891839778</v>
+        <v>0.003079383212179245</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.02320134740764386</v>
+        <v>1.914541714072682</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003079383212179245</v>
+        <v>2.644466474932285</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.94368511761245</v>
+        <v>5.160135204241762</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.644466474932285</v>
+        <v>2.289468065668626e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.160135204241762</v>
+        <v>5771322832.702703</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.289468065668626e-17</v>
+        <v>2.065367528484433e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>5771322832.702703</v>
+        <v>762.5798522027131</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.065367528484433e-08</v>
+        <v>0.0001213674783633279</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>762.5798522027131</v>
+        <v>9.509852265131068</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001213674783633279</v>
+        <v>1.569176482451053</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.509852265131068</v>
+        <v>0.01097614585001029</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.569176482451053</v>
+        <v>4.211107676422789</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01097614585001029</v>
+        <v>0.9604383201540452</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.211107676422789</v>
+        <v>1.093722492550046</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9604383201540452</v>
+        <v>223</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.093722492550046</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>223</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>2.472311796057405</v>
       </c>
     </row>
@@ -8517,72 +8403,66 @@
         <v>5.442571645689298e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.112335332782534</v>
+        <v>1.635286309006481e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.429518365770962</v>
+        <v>1.838031038109574e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.635286309006481e-07</v>
+        <v>-0.04901648099811032</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.838031038109574e-06</v>
+        <v>0.02544354421550047</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04901648099811032</v>
+        <v>0.003049899845501477</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.02544354421550047</v>
+        <v>1.906772608108655</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003049899845501477</v>
+        <v>2.512434428353611</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.939435035134849</v>
+        <v>5.337634150604563</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.512434428353611</v>
+        <v>2.139730837408828e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.337634150604563</v>
+        <v>6131468396.491149</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.139730837408828e-17</v>
+        <v>1.939339209868423e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>6131468396.491149</v>
+        <v>804.4297690998008</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.939339209868423e-08</v>
+        <v>9.853668145568151e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>804.4297690998008</v>
+        <v>8.209286602569641</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>9.853668145568151e-05</v>
+        <v>1.349808152401718</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.209286602569641</v>
+        <v>0.006640622123367764</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.349808152401718</v>
+        <v>4.20364435572446</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.006640622123367764</v>
+        <v>0.960909458564847</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.20364435572446</v>
+        <v>1.160671921886552</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.960909458564847</v>
+        <v>232</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.160671921886552</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>232</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>2.43969819501241</v>
       </c>
     </row>
@@ -8597,72 +8477,66 @@
         <v>5.388559546127854e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.1531346948200006</v>
+        <v>1.598462218498548e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.427127420028024</v>
+        <v>1.835407482762849e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.598462218498548e-07</v>
+        <v>-0.04791152814807797</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.835407482762849e-06</v>
+        <v>0.02739720018016727</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04791152814807797</v>
+        <v>0.003046125323389405</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.02739720018016727</v>
+        <v>1.912071024890215</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003046125323389405</v>
+        <v>2.642122812741598</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.938128360512738</v>
+        <v>6.810939864062703</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.642122812741598</v>
+        <v>2.63552397254499e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>6.810939864062703</v>
+        <v>4985399246.567646</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.63552397254499e-17</v>
+        <v>2.394967077479231e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>4985399246.567646</v>
+        <v>655.0385480301649</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.394967077479231e-08</v>
+        <v>0.0001035036837157575</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>655.0385480301649</v>
+        <v>7.467813333802972</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001035036837157575</v>
+        <v>1.279699365400758</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.467813333802972</v>
+        <v>0.005772217859142064</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.279699365400758</v>
+        <v>3.935101550390025</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.005772217859142064</v>
+        <v>0.9610336152478965</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.935101550390025</v>
+        <v>1.162891502248395</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9610336152478965</v>
+        <v>229</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.162891502248395</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.965511572516854</v>
       </c>
     </row>
@@ -8677,72 +8551,66 @@
         <v>5.329335099015755e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.1969537759848898</v>
+        <v>1.565912059407411e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.416642815835421</v>
+        <v>1.83285650748668e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.565912059407411e-07</v>
+        <v>-0.04742523681276885</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.83285650748668e-06</v>
+        <v>0.02837457110098603</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04742523681276885</v>
+        <v>0.003054329113245358</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.02837457110098603</v>
+        <v>1.912241323459772</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003054329113245358</v>
+        <v>2.39037997224637</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.939063679384722</v>
+        <v>5.449681976636652</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.39037997224637</v>
+        <v>6.427327718299296e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.449681976636652</v>
+        <v>2125217352.900732</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.427327718299296e-17</v>
+        <v>5.640327281931272e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>2125217352.900732</v>
+        <v>290.2933927446188</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.640327281931272e-08</v>
+        <v>0.0001243553615095722</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>290.2933927446188</v>
+        <v>7.119528317116499</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001243553615095722</v>
+        <v>1.750536935588882</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.119528317116499</v>
+        <v>0.006303285200530169</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.750536935588882</v>
+        <v>3.66045401799572</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.006303285200530169</v>
+        <v>0.9608663266468389</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.66045401799572</v>
+        <v>1.253322928681927</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9608663266468389</v>
+        <v>184</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.253322928681927</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.123169505525732</v>
       </c>
     </row>
@@ -8757,72 +8625,66 @@
         <v>5.267702859603071e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.2419861646742354</v>
+        <v>1.539470557778804e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.398273984672491</v>
+        <v>1.830337811616351e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.539470557778804e-07</v>
+        <v>-0.04776441770651004</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.830337811616351e-06</v>
+        <v>0.02875172519106021</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04776441770651004</v>
+        <v>0.003108123056994567</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.02875172519106021</v>
+        <v>1.910621777048568</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003108123056994567</v>
+        <v>2.349944905469914</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.9362169814545</v>
+        <v>4.832424148200168</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.349944905469914</v>
+        <v>8.174151280455294e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.832424148200168</v>
+        <v>1670806728.563481</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.174151280455294e-17</v>
+        <v>7.168568678318949e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1670806728.563481</v>
+        <v>228.1892085909846</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>7.168568678318949e-08</v>
+        <v>0.0001452224529312009</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>228.1892085909846</v>
+        <v>9.175776058357158</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001452224529312009</v>
+        <v>1.351573220347651</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.175776058357158</v>
+        <v>0.01222698500439699</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.351573220347651</v>
+        <v>3.338512598636867</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01222698500439699</v>
+        <v>0.9597896489183056</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.338512598636867</v>
+        <v>1.253246244053263</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9597896489183056</v>
+        <v>139</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.253246244053263</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.7420472743065056</v>
       </c>
     </row>
@@ -8837,72 +8699,66 @@
         <v>5.204518668894994e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.2862855775214496</v>
+        <v>1.521878902078122e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.373393113899594</v>
+        <v>1.827814138258721e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.521878902078122e-07</v>
+        <v>-0.04871951901997131</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.827814138258721e-06</v>
+        <v>0.02905126329060904</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04871951901997131</v>
+        <v>0.003217592202193724</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.02905126329060904</v>
+        <v>1.903105831208184</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003217592202193724</v>
+        <v>2.233926954501477</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.932493980818696</v>
+        <v>4.772984463946967</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.233926954501477</v>
+        <v>8.379010242373234e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.772984463946967</v>
+        <v>1550327603.518265</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>8.379010242373234e-17</v>
+        <v>7.701606671084059e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1550327603.518265</v>
+        <v>201.3908248559959</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>7.701606671084059e-08</v>
+        <v>0.0001585461176761257</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>201.3908248559959</v>
+        <v>11.20254585845574</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001585461176761257</v>
+        <v>1.162791258098191</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.20254585845574</v>
+        <v>0.01989706747471783</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.162791258098191</v>
+        <v>3.061246907147091</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01989706747471783</v>
+        <v>0.9599929518943923</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.061246907147091</v>
+        <v>1.265287762580269</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9599929518943923</v>
+        <v>111</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.265287762580269</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.629065656502793</v>
       </c>
     </row>
@@ -8917,72 +8773,66 @@
         <v>5.138415638836711e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3278758406689958</v>
+        <v>1.543361336683001e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.34445785720378</v>
+        <v>1.825260391468979e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.543361336683001e-07</v>
+        <v>-0.05005881448871585</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.825260391468979e-06</v>
+        <v>0.02926414220112256</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05005881448871585</v>
+        <v>0.003362290431073489</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.02926414220112256</v>
+        <v>1.904663971859194</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003362290431073489</v>
+        <v>2.17358664481243</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.933204616275961</v>
+        <v>4.884896981538141</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.17358664481243</v>
+        <v>7.999483451247447e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.884896981538141</v>
+        <v>1608161398.250537</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.999483451247447e-17</v>
+        <v>7.433390178662599e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1608161398.250537</v>
+        <v>206.8812877293967</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.433390178662599e-08</v>
+        <v>0.0001535380837911304</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>206.8812877293967</v>
+        <v>11.48756517437723</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001535380837911304</v>
+        <v>1.14619603162357</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>11.48756517437723</v>
+        <v>0.0202615232783229</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.14619603162357</v>
+        <v>2.994886361865949</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0202615232783229</v>
+        <v>0.9593673268793282</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.994886361865949</v>
+        <v>1.285245450828204</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9593673268793282</v>
+        <v>142</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.285245450828204</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>142</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.6222576621201154</v>
       </c>
     </row>
@@ -8997,72 +8847,66 @@
         <v>5.06902834651426e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.3658273038173041</v>
+        <v>1.561125111521488e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.31297101732231</v>
+        <v>1.822672327195245e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.561125111521488e-07</v>
+        <v>-0.05132826023514549</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.822672327195245e-06</v>
+        <v>0.02956844983389669</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.05132826023514549</v>
+        <v>0.003508918217358243</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.02956844983389669</v>
+        <v>1.902796698246018</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.003508918217358243</v>
+        <v>2.124393659087553</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.933392400568201</v>
+        <v>4.99157364903758</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.124393659087553</v>
+        <v>7.661217570832139e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.99157364903758</v>
+        <v>1625215087.953831</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>7.661217570832139e-17</v>
+        <v>7.306572103658013e-08</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1625215087.953831</v>
+        <v>202.357584681445</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.306572103658013e-08</v>
+        <v>0.0001387118725195288</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>202.357584681445</v>
+        <v>9.29341027036933</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001387118725195288</v>
+        <v>1.267389628214645</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.29341027036933</v>
+        <v>0.01198019410621453</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.267389628214645</v>
+        <v>3.229391726316202</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01198019410621453</v>
+        <v>0.9581534723708582</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.229391726316202</v>
+        <v>1.294472632664688</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9581534723708582</v>
+        <v>148</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.294472632664688</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.5699528348983856</v>
       </c>
     </row>
@@ -9077,72 +8921,66 @@
         <v>4.996573654528861e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.400236094856332</v>
+        <v>1.572551979811699e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.279369237664264</v>
+        <v>1.820060217667844e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.572551979811699e-07</v>
+        <v>-0.05245283339876092</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.820060217667844e-06</v>
+        <v>0.02990449576956688</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05245283339876092</v>
+        <v>0.003645708450853732</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.02990449576956688</v>
+        <v>1.901801716027707</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.003645708450853732</v>
+        <v>2.239677440165223</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.931713614978404</v>
+        <v>4.979377934768687</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.239677440165223</v>
+        <v>7.698791919698154e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.979377934768687</v>
+        <v>1589384835.474914</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>7.698791919698154e-17</v>
+        <v>7.462387081586334e-08</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1589384835.474914</v>
+        <v>194.4825821033612</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.462387081586334e-08</v>
+        <v>0.000148928694442757</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>194.4825821033612</v>
+        <v>7.90645696829406</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.000148928694442757</v>
+        <v>1.61963868521357</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>7.90645696829406</v>
+        <v>0.009309839749530917</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.61963868521357</v>
+        <v>3.243918682098849</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.009309839749530917</v>
+        <v>0.9573505769010309</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.243918682098849</v>
+        <v>1.304931113967828</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9573505769010309</v>
+        <v>148</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.304931113967828</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.4821867643645752</v>
       </c>
     </row>
@@ -9157,72 +8995,66 @@
         <v>4.919562678811291e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.4309657280107897</v>
+        <v>1.579418485967597e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.245677073112374</v>
+        <v>1.817432743976107e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.579418485967597e-07</v>
+        <v>-0.05350621074964641</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.817432743976107e-06</v>
+        <v>0.03025979852428915</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05350621074964641</v>
+        <v>0.003778743032538995</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.03025979852428915</v>
+        <v>1.900442057794925</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.003778743032538995</v>
+        <v>2.400468536961361</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.930255927853008</v>
+        <v>4.918152090729858</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.400468536961361</v>
+        <v>7.891668847933469e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.918152090729858</v>
+        <v>1556916702.396036</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>7.891668847933469e-17</v>
+        <v>7.616412444666117e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1556916702.396036</v>
+        <v>191.2932335766108</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>7.616412444666117e-08</v>
+        <v>0.0001575300427500653</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>191.2932335766108</v>
+        <v>9.214252655222344</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001575300427500653</v>
+        <v>1.343812214745832</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.214252655222344</v>
+        <v>0.01337468689224304</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.343812214745832</v>
+        <v>3.097916512428274</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01337468689224304</v>
+        <v>0.957332825219846</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.097916512428274</v>
+        <v>1.316710440638865</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.957332825219846</v>
+        <v>131</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.316710440638865</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>131</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.4605509152403489</v>
       </c>
     </row>
@@ -9237,72 +9069,66 @@
         <v>4.837715485626246e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.4582223925785546</v>
+        <v>1.576767921126476e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.213167200180246</v>
+        <v>1.814801091474355e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.576767921126476e-07</v>
+        <v>-0.05432195542269237</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.814801091474355e-06</v>
+        <v>0.03078231077092586</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05432195542269237</v>
+        <v>0.003898427953168463</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.03078231077092586</v>
+        <v>1.901321200513328</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.003898427953168463</v>
+        <v>2.278983415412537</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.934225735161665</v>
+        <v>4.925286668706784</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.278983415412537</v>
+        <v>7.868822280471343e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.925286668706784</v>
+        <v>1585184950.364809</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>7.868822280471343e-17</v>
+        <v>7.491304204854314e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1585184950.364809</v>
+        <v>197.7286575544098</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>7.491304204854314e-08</v>
+        <v>0.0001762536686195611</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>197.7286575544098</v>
+        <v>11.86017483799945</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001762536686195611</v>
+        <v>1.102371842022529</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.86017483799945</v>
+        <v>0.02479250148364454</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.102371842022529</v>
+        <v>2.76972891508913</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.02479250148364454</v>
+        <v>0.9578706611975787</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.76972891508913</v>
+        <v>1.290221017326372</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9578706611975787</v>
+        <v>125</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.290221017326372</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.4940272213768725</v>
       </c>
     </row>
@@ -9317,72 +9143,66 @@
         <v>4.754542833234057e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.4833255064644892</v>
+        <v>1.566091931810055e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.178490774293387</v>
+        <v>1.812181312709078e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.566091931810055e-07</v>
+        <v>-0.05489947774715857</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.812181312709078e-06</v>
+        <v>0.03124408365551274</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05489947774715857</v>
+        <v>0.003989954379062926</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.03124408365551274</v>
+        <v>1.899947399947875</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.003989954379062926</v>
+        <v>2.404872582934718</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.929721755252405</v>
+        <v>4.941616825965816</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.404872582934718</v>
+        <v>7.816901304177218e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.941616825965816</v>
+        <v>1657789908.814987</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>7.816901304177218e-17</v>
+        <v>7.180127006085197e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1657789908.814987</v>
+        <v>214.8293488077627</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>7.180127006085197e-08</v>
+        <v>0.0001766929535492712</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>214.8293488077627</v>
+        <v>11.99886880302522</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001766929535492712</v>
+        <v>1.095498572984841</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>11.99886880302522</v>
+        <v>0.02543898854836407</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.095498572984841</v>
+        <v>2.77675369902181</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.02543898854836407</v>
+        <v>0.9599419366527661</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.77675369902181</v>
+        <v>1.263053369657719</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9599419366527661</v>
+        <v>116</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.263053369657719</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.5244337114290734</v>
       </c>
     </row>
@@ -9397,72 +9217,66 @@
         <v>4.673052226343125e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.5071879373109444</v>
+        <v>1.553274069708075e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.138037171821828</v>
+        <v>1.809581918474956e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.553274069708075e-07</v>
+        <v>-0.05539939198010997</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.809581918474956e-06</v>
+        <v>0.03163246051138762</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05539939198010997</v>
+        <v>0.004069547705341478</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.03163246051138762</v>
+        <v>1.900436294869348</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.004069547705341478</v>
+        <v>2.341807853324836</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.925840178552294</v>
+        <v>4.923984550262228</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.341807853324836</v>
+        <v>7.872984557297751e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.923984550262228</v>
+        <v>1654402404.345779</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>7.872984557297751e-17</v>
+        <v>7.203597046117052e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1654402404.345779</v>
+        <v>215.4873124756487</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>7.203597046117052e-08</v>
+        <v>0.0001607265309678738</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>215.4873124756487</v>
+        <v>9.77931199435039</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001607265309678738</v>
+        <v>1.282070147568332</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.77931199435039</v>
+        <v>0.01537107264101581</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.282070147568332</v>
+        <v>3.091381045219733</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01537107264101581</v>
+        <v>0.9606913512439278</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.091381045219733</v>
+        <v>1.28189263508503</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9606913512439278</v>
+        <v>122</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.28189263508503</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>122</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.5311016344253412</v>
       </c>
     </row>
@@ -9477,72 +9291,66 @@
         <v>4.592897950499183e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5297213107199533</v>
+        <v>1.540825513751404e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.091836069549022</v>
+        <v>1.807003508122798e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.540825513751404e-07</v>
+        <v>-0.05591313228465124</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.807003508122798e-06</v>
+        <v>0.03212878151883199</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05591313228465124</v>
+        <v>0.004158535568865907</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.03212878151883199</v>
+        <v>1.903784957794312</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.004158535568865907</v>
+        <v>2.185860663906546</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.92676947542489</v>
+        <v>4.905165441242547</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.185860663906546</v>
+        <v>7.93351127182562e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.905165441242547</v>
+        <v>1684459701.865829</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>7.93351127182562e-17</v>
+        <v>7.107228012602164e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1684459701.865829</v>
+        <v>225.1058048200847</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>7.107228012602164e-08</v>
+        <v>0.0001525513955876878</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>225.1058048200847</v>
+        <v>8.259599804884376</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001525513955876878</v>
+        <v>1.525516880688387</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.259599804884376</v>
+        <v>0.01040720707068807</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.525516880688387</v>
+        <v>3.237847191961131</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01040720707068807</v>
+        <v>0.9604850578896936</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.237847191961131</v>
+        <v>1.284423758417983</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9604850578896936</v>
+        <v>112</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.284423758417983</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.5887333029965702</v>
       </c>
     </row>
@@ -9557,72 +9365,66 @@
         <v>4.511467025675288e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5505708734811583</v>
+        <v>1.527380560991772e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.042666134224614</v>
+        <v>1.804446357164621e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.527380560991772e-07</v>
+        <v>-0.05642353173107895</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.804446357164621e-06</v>
+        <v>0.03285234915626092</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05642353173107895</v>
+        <v>0.004263078190391652</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.03285234915626092</v>
+        <v>1.908796354302957</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.004263078190391652</v>
+        <v>2.097020101323456</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.927371283496497</v>
+        <v>5.004900685035708</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.097020101323456</v>
+        <v>7.575257880066637e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>5.004900685035708</v>
+        <v>1775324627.453738</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>7.575257880066637e-17</v>
+        <v>6.746737534898945e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1775324627.453738</v>
+        <v>238.7552759189163</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.746737534898945e-08</v>
+        <v>0.0001462055225162129</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>238.7552759189163</v>
+        <v>8.815415049642009</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001462055225162129</v>
+        <v>1.337804222405868</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.815415049642009</v>
+        <v>0.01136185667638127</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.337804222405868</v>
+        <v>3.243135291655163</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01136185667638127</v>
+        <v>0.9608624878741385</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.243135291655163</v>
+        <v>1.253593403985672</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9608624878741385</v>
+        <v>112</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.253593403985672</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.748482500382013</v>
       </c>
     </row>
@@ -9999,7 +9801,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.292828394790223</v>
+        <v>1.306183651888199</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.54374864010972</v>
@@ -10088,7 +9890,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.304140208145883</v>
+        <v>1.317702548044795</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.461566872429621</v>
@@ -10177,7 +9979,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.336751365604551</v>
+        <v>1.35335626341081</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.249888554179778</v>
@@ -10266,7 +10068,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.363932118085801</v>
+        <v>1.38135866793564</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.160155847116914</v>
@@ -10355,7 +10157,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.393304793464722</v>
+        <v>1.409376912337017</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.217342286475291</v>
@@ -10444,7 +10246,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.399831238175517</v>
+        <v>1.416846461831432</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.195375303216623</v>
@@ -10533,7 +10335,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39892741967691</v>
+        <v>1.420755683221725</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.35884724662177</v>
@@ -10622,7 +10424,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.395514326268323</v>
+        <v>1.41523950782515</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.382776731408598</v>
@@ -10711,7 +10513,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.381813261357599</v>
+        <v>1.405523726948825</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.332734924822975</v>
@@ -10800,7 +10602,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.396110424455281</v>
+        <v>1.424782623751781</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.360493391734685</v>
@@ -10889,7 +10691,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.400234767580756</v>
+        <v>1.43220608337493</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.379033012486994</v>
@@ -10978,7 +10780,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.427583595992413</v>
+        <v>1.460921415402313</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.383025156292007</v>
@@ -11067,7 +10869,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.443836584431151</v>
+        <v>1.471386710905303</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.537112968962296</v>
@@ -11156,7 +10958,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.442090221451937</v>
+        <v>1.475490161081547</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.48174901461864</v>
@@ -11245,7 +11047,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.422859372381223</v>
+        <v>1.455102472170427</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.427083179396004</v>
@@ -11334,7 +11136,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.421267065743524</v>
+        <v>1.454053955114492</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.494548087516087</v>
@@ -11423,7 +11225,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.416149849666566</v>
+        <v>1.451053745388834</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.55313214625406</v>
@@ -11512,7 +11314,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.379904963114021</v>
+        <v>1.410347539907408</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.489705336884641</v>
@@ -11601,7 +11403,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.384801203558528</v>
+        <v>1.412256206772595</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.460073742578731</v>
@@ -11690,7 +11492,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.38903547659642</v>
+        <v>1.419388590591055</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.469404611721641</v>
@@ -11779,7 +11581,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.417281791727572</v>
+        <v>1.444324940701429</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.186796273191209</v>
@@ -11868,7 +11670,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.436455877252983</v>
+        <v>1.464695490846804</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.320671427046405</v>
@@ -11957,7 +11759,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.459556675169595</v>
+        <v>1.489285101053142</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.335768643840854</v>
@@ -12046,7 +11848,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.467076145538134</v>
+        <v>1.494572669380408</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.384484179241492</v>
@@ -12135,7 +11937,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.467807698907905</v>
+        <v>1.49459440219782</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.344182038303837</v>
@@ -12224,7 +12026,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.430580879563329</v>
+        <v>1.45711037276572</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.415483148485081</v>
@@ -12313,7 +12115,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.401199517160052</v>
+        <v>1.431475396294677</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.45839418412486</v>
@@ -12402,7 +12204,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.39061485323191</v>
+        <v>1.419887064768502</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.397797410130429</v>
@@ -12491,7 +12293,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.394783129116054</v>
+        <v>1.422925134842265</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.473916619565718</v>
@@ -12580,7 +12382,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.418958636852271</v>
+        <v>1.447270216553485</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.459610643646475</v>
@@ -12669,7 +12471,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.416460671684272</v>
+        <v>1.443892658118552</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.241926495967011</v>
@@ -12758,7 +12560,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.435204491410354</v>
+        <v>1.456376380827145</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.299912243770402</v>
@@ -12847,7 +12649,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.472820000429086</v>
+        <v>1.498313004120683</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.449402155121706</v>
@@ -12936,7 +12738,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.49220576604892</v>
+        <v>1.517122516482261</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.309009520662491</v>
@@ -13025,7 +12827,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.480020872138125</v>
+        <v>1.50462917639486</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.420097224632065</v>
@@ -13114,7 +12916,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.485563644870487</v>
+        <v>1.513387616172199</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.512746800081117</v>
@@ -13203,7 +13005,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.508993022713882</v>
+        <v>1.531622014971413</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.499808930642336</v>
@@ -13292,7 +13094,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.489647098198299</v>
+        <v>1.510527737999802</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.272195809258097</v>
@@ -13381,7 +13183,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.507251836801454</v>
+        <v>1.529650524056664</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.451857746656575</v>
@@ -13470,7 +13272,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.527828147500518</v>
+        <v>1.544906879605676</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.198116681732785</v>
@@ -13559,7 +13361,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.574227214384521</v>
+        <v>1.587887856611274</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.291731383886809</v>
@@ -13648,7 +13450,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.606759369913209</v>
+        <v>1.609732114588508</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.226587336294487</v>
@@ -13737,7 +13539,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.571123470021152</v>
+        <v>1.578041313016638</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.366029643173551</v>
@@ -13826,7 +13628,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.559559990433121</v>
+        <v>1.568134633736318</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.418869888829005</v>
@@ -13915,7 +13717,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.530894825512977</v>
+        <v>1.543593362918388</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.397860927246306</v>
@@ -14004,7 +13806,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.536295972536673</v>
+        <v>1.5464799634978</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.447431092768931</v>
@@ -14093,7 +13895,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.516081830435588</v>
+        <v>1.53194142412268</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.451481990543079</v>
@@ -14182,7 +13984,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.507359834115778</v>
+        <v>1.517974664637132</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.436160712102914</v>
@@ -14271,7 +14073,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.498814144582012</v>
+        <v>1.513184721246761</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.478834841603992</v>
@@ -14360,7 +14162,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.494081593147079</v>
+        <v>1.50856457456739</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.396517075867204</v>
@@ -14449,7 +14251,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.493238691071544</v>
+        <v>1.508213477457892</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.445047408633032</v>
@@ -14538,7 +14340,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.471105696270009</v>
+        <v>1.488086614741042</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.272423869516822</v>
@@ -14627,7 +14429,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.480562155588082</v>
+        <v>1.490291593834183</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.414119369804018</v>
@@ -14716,7 +14518,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.443927263194504</v>
+        <v>1.458083800042937</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.488012757445116</v>
@@ -14805,7 +14607,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.423660824286761</v>
+        <v>1.4411650492681</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.375836139453776</v>
@@ -14894,7 +14696,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.378515018523086</v>
+        <v>1.394461165547081</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.344478262869059</v>
@@ -14983,7 +14785,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.397816935332324</v>
+        <v>1.414393928051974</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.386649863276659</v>
@@ -15072,7 +14874,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.419017853585005</v>
+        <v>1.436790772127602</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.276837658286616</v>
@@ -15161,7 +14963,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.407096577494698</v>
+        <v>1.424077041867215</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.257782735928054</v>
@@ -15250,7 +15052,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.385957013226463</v>
+        <v>1.401765685169006</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.393098814690463</v>
@@ -15339,7 +15141,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.375038840522442</v>
+        <v>1.392658288488981</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.207205568684252</v>
@@ -15428,7 +15230,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.360624584887793</v>
+        <v>1.381657900273996</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.37829330369256</v>
@@ -15517,7 +15319,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.370315045091753</v>
+        <v>1.392451827547562</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.352000340628157</v>
@@ -15606,7 +15408,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.344541268890362</v>
+        <v>1.37056639365435</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.415129956432718</v>
@@ -15695,7 +15497,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.352281642472202</v>
+        <v>1.379758448119264</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.371426683322011</v>
@@ -15784,7 +15586,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.335841514895836</v>
+        <v>1.361451855486584</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.288671242282767</v>
@@ -15873,7 +15675,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.335112965336325</v>
+        <v>1.362243905391098</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.389304081489743</v>
@@ -15962,7 +15764,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.340028099615063</v>
+        <v>1.36094019004079</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.199746012897966</v>
@@ -16051,7 +15853,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.323786020658589</v>
+        <v>1.351141178434478</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.356722144715936</v>
@@ -16140,7 +15942,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.336864367271593</v>
+        <v>1.367772306654311</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.127558516506271</v>
@@ -16229,7 +16031,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.367067899963853</v>
+        <v>1.398783806104118</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.427678729464434</v>
@@ -16318,7 +16120,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.355627247460422</v>
+        <v>1.386988349833402</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.443832967073412</v>
@@ -16407,7 +16209,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.357394357457006</v>
+        <v>1.388978014977297</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.263933538269517</v>
@@ -16496,7 +16298,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.371609569998363</v>
+        <v>1.407153457206945</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.442773323076648</v>
@@ -16585,7 +16387,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.392844029206416</v>
+        <v>1.423909094737023</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.359072021090315</v>
@@ -16674,7 +16476,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.415772130370172</v>
+        <v>1.447610139890617</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.388548805094468</v>
@@ -16960,7 +16762,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.473385302761042</v>
+        <v>1.492359340956662</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.783429436465949</v>
@@ -17049,7 +16851,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.470655669035887</v>
+        <v>1.490760237694512</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.784151796070192</v>
@@ -17138,7 +16940,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.467222356392989</v>
+        <v>1.487719343257818</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.77323137444189</v>
@@ -17227,7 +17029,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.463190814653108</v>
+        <v>1.480451389711572</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.756899366602064</v>
@@ -17316,7 +17118,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.460469199334973</v>
+        <v>1.480426783037964</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.775275598797771</v>
@@ -17405,7 +17207,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.460716967708577</v>
+        <v>1.478676289854612</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.764420727463435</v>
@@ -17494,7 +17296,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.47091895854647</v>
+        <v>1.490499211034225</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.749833658326498</v>
@@ -17583,7 +17385,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.475848298723791</v>
+        <v>1.495102296800292</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.776971827531047</v>
@@ -17672,7 +17474,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.468826118121471</v>
+        <v>1.484826485782747</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.6505553317055</v>
@@ -17761,7 +17563,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.536475990099992</v>
+        <v>1.527756746817974</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.629354218296416</v>
@@ -17850,7 +17652,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636282654644116</v>
+        <v>1.609016769262934</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.559121914366156</v>
@@ -17939,7 +17741,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.681188170743081</v>
+        <v>1.645939561689431</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.614316926276312</v>
@@ -18028,7 +17830,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.690507782330904</v>
+        <v>1.644909937002444</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.283985657299329</v>
@@ -18117,7 +17919,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.691252062210466</v>
+        <v>1.650574378701658</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.484187850664993</v>
@@ -18206,7 +18008,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.681413214923888</v>
+        <v>1.643567857472224</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.503055178184193</v>
@@ -18295,7 +18097,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.669076490553939</v>
+        <v>1.631638354303433</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.434127621824091</v>
@@ -18384,7 +18186,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658995122436767</v>
+        <v>1.622095511006203</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.097761591221184</v>
@@ -18473,7 +18275,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.574587724972825</v>
+        <v>1.547774991929007</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.046351913674224</v>
@@ -18562,7 +18364,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.569386074108118</v>
+        <v>1.541075764907064</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.034872198657191</v>
@@ -18651,7 +18453,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.567157634623132</v>
+        <v>1.539647993655711</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.022823323408942</v>
@@ -18740,7 +18542,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.536841175915417</v>
+        <v>1.516147218136613</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.073007144395222</v>
@@ -18829,7 +18631,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.537077638628284</v>
+        <v>1.511077626474762</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.038395061484646</v>
@@ -18918,7 +18720,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.549156325404158</v>
+        <v>1.523858191433562</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.072289680667358</v>
@@ -19007,7 +18809,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.542296858614714</v>
+        <v>1.518291810993059</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.993657525406462</v>
@@ -19096,7 +18898,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.528880525114049</v>
+        <v>1.509492145268483</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.019305159303717</v>
@@ -19185,7 +18987,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.512059792352527</v>
+        <v>1.493841235090728</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.05283868889372</v>
@@ -19274,7 +19076,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.500741441412077</v>
+        <v>1.484070039855865</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.080317895024096</v>
@@ -19363,7 +19165,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.502031953140051</v>
+        <v>1.488713231971226</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.046661077840942</v>
@@ -19452,7 +19254,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.498027883264059</v>
+        <v>1.484115648749311</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.038816729693104</v>
@@ -19541,7 +19343,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.500007730095078</v>
+        <v>1.486711819953342</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.008243295476993</v>
@@ -19630,7 +19432,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.513805310144516</v>
+        <v>1.498760968128595</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.035768388797729</v>
@@ -19719,7 +19521,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.507811494358632</v>
+        <v>1.49249450560603</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.075055325560786</v>
@@ -19808,7 +19610,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.569175935192074</v>
+        <v>1.548556371269692</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.615051356511489</v>
@@ -19897,7 +19699,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.575384651951245</v>
+        <v>1.554455869376775</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.764191941666296</v>
@@ -19986,7 +19788,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580503053722648</v>
+        <v>1.555345505082541</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.525044624010949</v>
@@ -20075,7 +19877,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.598073617885284</v>
+        <v>1.574470231091878</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.821954005930873</v>
@@ -20164,7 +19966,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.584933507485122</v>
+        <v>1.56041568313345</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.905961868837973</v>
@@ -20253,7 +20055,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.573773603761065</v>
+        <v>1.545439240456157</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.909425758979653</v>
@@ -20342,7 +20144,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.562868832021652</v>
+        <v>1.53451259460125</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.756476616909949</v>
@@ -20431,7 +20233,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.585600882839378</v>
+        <v>1.554495732468798</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.767413406299085</v>
@@ -20520,7 +20322,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.604814756730501</v>
+        <v>1.571345315986569</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.045348612462543</v>
@@ -20609,7 +20411,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618730837608524</v>
+        <v>1.587487100243649</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.858172260399129</v>
@@ -20698,7 +20500,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620475699809884</v>
+        <v>1.58971520405662</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.156029243906409</v>
@@ -20787,7 +20589,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.599965022243237</v>
+        <v>1.571126790007401</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.089715525055193</v>
@@ -20876,7 +20678,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.57805286923701</v>
+        <v>1.543329310297487</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.578180509383172</v>
@@ -20965,7 +20767,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.567493539547317</v>
+        <v>1.531222144541549</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.641261421505707</v>
@@ -21054,7 +20856,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.552131881971518</v>
+        <v>1.520974382501439</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.501386364823541</v>
@@ -21143,7 +20945,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.545149711175104</v>
+        <v>1.509498789049975</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.566962216862999</v>
@@ -21232,7 +21034,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.537250771907637</v>
+        <v>1.50464025003168</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.572780726696182</v>
@@ -21321,7 +21123,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.523859171858304</v>
+        <v>1.491805146293805</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.639055608871274</v>
@@ -21410,7 +21212,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.521496193770434</v>
+        <v>1.490637179701219</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.673726502578685</v>
@@ -21499,7 +21301,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.526270596521851</v>
+        <v>1.501263867413673</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.468201880210418</v>
@@ -21588,7 +21390,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.519217044539621</v>
+        <v>1.495608649165947</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.620735113267958</v>
@@ -21677,7 +21479,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.526565874551931</v>
+        <v>1.501695091624562</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.641477195076153</v>
@@ -21766,7 +21568,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.515562242928373</v>
+        <v>1.488943609568954</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.656616236431511</v>
@@ -21855,7 +21657,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.499472232760456</v>
+        <v>1.473201048778515</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.574492037364311</v>
@@ -21944,7 +21746,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.484524747025586</v>
+        <v>1.461400639334607</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.693219519290577</v>
@@ -22033,7 +21835,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.477392560762432</v>
+        <v>1.454707895022225</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.659308383834896</v>
@@ -22122,7 +21924,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.493562461809458</v>
+        <v>1.468092240734773</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.601389495981887</v>
@@ -22211,7 +22013,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.482630540850539</v>
+        <v>1.469761014349728</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.748350932638314</v>
@@ -22300,7 +22102,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.483693420482876</v>
+        <v>1.47216814566596</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.544909023053613</v>
@@ -22389,7 +22191,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.50254012271973</v>
+        <v>1.49135269559522</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.757282563687609</v>
@@ -22478,7 +22280,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.506965192379496</v>
+        <v>1.499354618753318</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.844604811320561</v>
@@ -22567,7 +22369,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.504911868349361</v>
+        <v>1.497668965772058</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.663450732251205</v>
@@ -22656,7 +22458,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.525100954446475</v>
+        <v>1.514687574253643</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.848479092110319</v>
@@ -22745,7 +22547,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.487051929918825</v>
+        <v>1.475082853632954</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.213464937776985</v>
@@ -22834,7 +22636,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.479018168670184</v>
+        <v>1.471091001391996</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.247060856749564</v>
@@ -22923,7 +22725,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.477710172063142</v>
+        <v>1.464280042722446</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.223654085766269</v>
@@ -23012,7 +22814,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.476523776360545</v>
+        <v>1.464841325673076</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.266652330520067</v>
@@ -23101,7 +22903,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.488849790154562</v>
+        <v>1.476383585112419</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.28063690278359</v>
@@ -23190,7 +22992,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.481772909781448</v>
+        <v>1.473657839023394</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.173684100964342</v>
@@ -23279,7 +23081,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.458324596187528</v>
+        <v>1.449299911913756</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.285596373248102</v>
@@ -23368,7 +23170,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.440736721101192</v>
+        <v>1.433185069655395</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.222262419045906</v>
@@ -23457,7 +23259,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.426056974071398</v>
+        <v>1.419596032658285</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.307195304840217</v>
@@ -23546,7 +23348,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.426315551354407</v>
+        <v>1.415072480587812</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.277329686652341</v>
@@ -23635,7 +23437,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.43095993823028</v>
+        <v>1.418942032872307</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.342412440533888</v>
@@ -23921,7 +23723,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.464893675138862</v>
+        <v>1.4897220632941</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.073842687977439</v>
@@ -24010,7 +23812,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.465381537008342</v>
+        <v>1.490553887686914</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.066244413373006</v>
@@ -24099,7 +23901,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.468751802224953</v>
+        <v>1.494310145592281</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.023289578071751</v>
@@ -24188,7 +23990,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.473829545018506</v>
+        <v>1.499223052656477</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.035293154755503</v>
@@ -24277,7 +24079,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.47900261147009</v>
+        <v>1.504020660824262</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.077434584437427</v>
@@ -24366,7 +24168,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.484908763102983</v>
+        <v>1.511848775379424</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.076246603861022</v>
@@ -24455,7 +24257,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.481714588588942</v>
+        <v>1.512273200726815</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.04783709044775</v>
@@ -24544,7 +24346,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.486928841766495</v>
+        <v>1.517654387031441</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.092405176912266</v>
@@ -24633,7 +24435,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.507241127399072</v>
+        <v>1.53179653175636</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.030192329852692</v>
@@ -24722,7 +24524,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.577542040636089</v>
+        <v>1.592327790975022</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.858560515894238</v>
@@ -24811,7 +24613,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.654548825669706</v>
+        <v>1.655659465016007</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.193663685123067</v>
@@ -24900,7 +24702,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.663026003791326</v>
+        <v>1.660456980252303</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.366004708949661</v>
@@ -24989,7 +24791,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.688536772384538</v>
+        <v>1.68237745567627</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.091428826091486</v>
@@ -25078,7 +24880,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.690440738620641</v>
+        <v>1.681469673009875</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.781676204675152</v>
@@ -25167,7 +24969,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.68096396491906</v>
+        <v>1.674628527156951</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.982182843528339</v>
@@ -25256,7 +25058,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.689767984099462</v>
+        <v>1.68191061977228</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.920803359356583</v>
@@ -25345,7 +25147,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.687919224262065</v>
+        <v>1.681899359982574</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.249617213391158</v>
@@ -25434,7 +25236,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.600371338509704</v>
+        <v>1.601473030424939</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.062371580279313</v>
@@ -25523,7 +25325,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.595612461053105</v>
+        <v>1.601354279610915</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.017827965425941</v>
@@ -25612,7 +25414,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.592222228453228</v>
+        <v>1.594981557803368</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.032414532294275</v>
@@ -25701,7 +25503,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.575226211323161</v>
+        <v>1.579495970225181</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.067085184415309</v>
@@ -25790,7 +25592,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.557007573483747</v>
+        <v>1.56705742002927</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.063577488781631</v>
@@ -25879,7 +25681,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.54372912237551</v>
+        <v>1.555287753819078</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.034074118111184</v>
@@ -25968,7 +25770,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.541563040351641</v>
+        <v>1.553252684573186</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.028406563124151</v>
@@ -26057,7 +25859,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540286695875802</v>
+        <v>1.552622300123909</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.066698138276567</v>
@@ -26146,7 +25948,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.539819244536631</v>
+        <v>1.548823288847405</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.039229740140499</v>
@@ -26235,7 +26037,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531218113842496</v>
+        <v>1.540704557631981</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.051077714464097</v>
@@ -26324,7 +26126,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.526407966479222</v>
+        <v>1.531985947332441</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.996019954467609</v>
@@ -26413,7 +26215,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.524799078309748</v>
+        <v>1.529041643675263</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.024674707983965</v>
@@ -26502,7 +26304,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.530545592837493</v>
+        <v>1.536261853465736</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.052726586611623</v>
@@ -26591,7 +26393,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.527136701713476</v>
+        <v>1.533955101091048</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.022483714913801</v>
@@ -26680,7 +26482,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.530351834777218</v>
+        <v>1.53389975430444</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.042153603240085</v>
@@ -26769,7 +26571,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.605464900702456</v>
+        <v>1.602765053082556</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.478502994932822</v>
@@ -26858,7 +26660,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.607631848299571</v>
+        <v>1.607263139903718</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.627571071460475</v>
@@ -26947,7 +26749,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60561414727114</v>
+        <v>1.607706657905106</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.47270578141903</v>
@@ -27036,7 +26838,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.628000836200413</v>
+        <v>1.626712606908086</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.521165501662447</v>
@@ -27125,7 +26927,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.669870322740208</v>
+        <v>1.656208365516788</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.97648802018431</v>
@@ -27214,7 +27016,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.673699184188345</v>
+        <v>1.65524679904415</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.164752352761507</v>
@@ -27303,7 +27105,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.670572987404239</v>
+        <v>1.65560372388267</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.473167202801677</v>
@@ -27392,7 +27194,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.680982047803388</v>
+        <v>1.665229366006288</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.388953502902325</v>
@@ -27481,7 +27283,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.672659676523636</v>
+        <v>1.660214964417973</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.615462131742801</v>
@@ -27570,7 +27372,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.679965967754091</v>
+        <v>1.663360720816408</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.104350215956793</v>
@@ -27659,7 +27461,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.681938238853881</v>
+        <v>1.667778836425312</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.55593652058477</v>
@@ -27748,7 +27550,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.683241280585472</v>
+        <v>1.67311247197879</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.756493022894418</v>
@@ -27837,7 +27639,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679937296891979</v>
+        <v>1.669131255501245</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.095964700273827</v>
@@ -27926,7 +27728,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.641726771654348</v>
+        <v>1.636172034048302</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.425075002204403</v>
@@ -28015,7 +27817,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.634885822108121</v>
+        <v>1.633503038467238</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.498062012660865</v>
@@ -28104,7 +27906,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636256967096908</v>
+        <v>1.627887688893873</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.522346397810725</v>
@@ -28193,7 +27995,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.637778562442416</v>
+        <v>1.629921474465282</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.451203723785196</v>
@@ -28282,7 +28084,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.633228899395978</v>
+        <v>1.627083517899179</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.512225128177549</v>
@@ -28371,7 +28173,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.629268363094372</v>
+        <v>1.622678712982209</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.546121822241759</v>
@@ -28460,7 +28262,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.633751045609988</v>
+        <v>1.628222132573878</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.342167616713275</v>
@@ -28549,7 +28351,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.630733100317238</v>
+        <v>1.622951145191907</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.419709114074571</v>
@@ -28638,7 +28440,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.63261586927967</v>
+        <v>1.625419147746572</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.432055609672381</v>
@@ -28727,7 +28529,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.634808565585799</v>
+        <v>1.628620519030354</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.449762951976744</v>
@@ -28816,7 +28618,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.628607678371214</v>
+        <v>1.62382603534296</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.448026681141334</v>
@@ -28905,7 +28707,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.612026038765832</v>
+        <v>1.61557103460161</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.599381618020499</v>
@@ -28994,7 +28796,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.612378017456876</v>
+        <v>1.615293251139283</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.450046219895953</v>
@@ -29083,7 +28885,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.611717598036182</v>
+        <v>1.612924426162396</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.635033174413688</v>
@@ -29172,7 +28974,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.618228264600552</v>
+        <v>1.616095508524735</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.41546802325529</v>
@@ -29261,7 +29063,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.641417609417008</v>
+        <v>1.640683403869114</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.689730180120796</v>
@@ -29350,7 +29152,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.635832546339163</v>
+        <v>1.634789756207372</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.592281261519317</v>
@@ -29439,7 +29241,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.626167250990678</v>
+        <v>1.627331284405151</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.697766951694909</v>
@@ -29528,7 +29330,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.607475796378238</v>
+        <v>1.611340665189844</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.809310611321833</v>
@@ -29617,7 +29419,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.597972371410206</v>
+        <v>1.598798558217058</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.847762791556499</v>
@@ -29706,7 +29508,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.578089902258771</v>
+        <v>1.579842160324057</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.777466037320182</v>
@@ -29795,7 +29597,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.571587099805946</v>
+        <v>1.5726821507071</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.72567644332964</v>
@@ -29884,7 +29686,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.57887224472905</v>
+        <v>1.579093928623865</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.5161188380567</v>
@@ -29973,7 +29775,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.568270890079565</v>
+        <v>1.567035166705253</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.778274222201533</v>
@@ -30062,7 +29864,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.555473473522434</v>
+        <v>1.553828608251119</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.484092191270929</v>
@@ -30151,7 +29953,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.543035462688296</v>
+        <v>1.545763611481708</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.54233659991542</v>
@@ -30240,7 +30042,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.5443115002051</v>
+        <v>1.54304675763897</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.027447830338478</v>
@@ -30329,7 +30131,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.53346191067721</v>
+        <v>1.534264725477256</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.165912390159733</v>
@@ -30418,7 +30220,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.5327555224502</v>
+        <v>1.534642977460816</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.24195063357996</v>
@@ -30507,7 +30309,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.524353564313457</v>
+        <v>1.525856476701216</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.219067716609433</v>
@@ -30596,7 +30398,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.521950726649804</v>
+        <v>1.524934193996242</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.975172629663046</v>
@@ -30882,7 +30684,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.575164454562561</v>
+        <v>1.606123893993866</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.03796155396477</v>
@@ -30971,7 +30773,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.588141399747192</v>
+        <v>1.616073780490277</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.035035200990439</v>
@@ -31060,7 +30862,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.618067819792369</v>
+        <v>1.642874685488106</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.095935348223779</v>
@@ -31149,7 +30951,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.640061043596665</v>
+        <v>1.662734204235095</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.093646832562627</v>
@@ -31238,7 +31040,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.654270872478643</v>
+        <v>1.673428973320421</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.981971775513093</v>
@@ -31327,7 +31129,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661813120131461</v>
+        <v>1.683310103205646</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.964501640888234</v>
@@ -31416,7 +31218,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.661436179383743</v>
+        <v>1.68596737983783</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.988254329679317</v>
@@ -31505,7 +31307,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.653286565982838</v>
+        <v>1.677285389455482</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.997309988525674</v>
@@ -31594,7 +31396,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.600905638795257</v>
+        <v>1.619668931921521</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.926195833607271</v>
@@ -31683,7 +31485,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612450930970661</v>
+        <v>1.62142817731543</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.842262794140874</v>
@@ -31772,7 +31574,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.57865391331407</v>
+        <v>1.575317622272327</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.881084394828839</v>
@@ -31861,7 +31663,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.584958527611031</v>
+        <v>1.583799413983273</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.954408344478236</v>
@@ -31950,7 +31752,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.585831796418408</v>
+        <v>1.582741394860324</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.823103218109214</v>
@@ -32039,7 +31841,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.595797969033414</v>
+        <v>1.59218535740017</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.975615008744472</v>
@@ -32128,7 +31930,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.588196125470475</v>
+        <v>1.584487180696897</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.023188042383752</v>
@@ -32217,7 +32019,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.585348386625327</v>
+        <v>1.581938117625932</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.888519165701951</v>
@@ -32306,7 +32108,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.572549352662899</v>
+        <v>1.572788134882854</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.941711870792798</v>
@@ -32395,7 +32197,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.533044128712591</v>
+        <v>1.537509799116282</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.437765316445799</v>
@@ -32484,7 +32286,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537636602628354</v>
+        <v>1.533739018816554</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.385444925166703</v>
@@ -32573,7 +32375,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.550281325655381</v>
+        <v>1.549020032424575</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.536023228404022</v>
@@ -32662,7 +32464,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565804627127054</v>
+        <v>1.56216192175063</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.372355460531137</v>
@@ -32751,7 +32553,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.592426575934598</v>
+        <v>1.588583476733814</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.517603870652721</v>
@@ -32840,7 +32642,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.614308979096258</v>
+        <v>1.610551459057374</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.380702335281603</v>
@@ -32929,7 +32731,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.62511766419842</v>
+        <v>1.61825891703859</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.417911996748245</v>
@@ -33018,7 +32820,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.616137570600682</v>
+        <v>1.612657851827608</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.445445290058797</v>
@@ -33107,7 +32909,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.601750344562224</v>
+        <v>1.598864562704604</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.522621188812563</v>
@@ -33196,7 +32998,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581252898244597</v>
+        <v>1.580864355438587</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.387282258542083</v>
@@ -33285,7 +33087,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.567534735292857</v>
+        <v>1.571691816013514</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.503261217357186</v>
@@ -33374,7 +33176,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.563365619058207</v>
+        <v>1.570253370441253</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.463990919822849</v>
@@ -33463,7 +33265,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.564958901636286</v>
+        <v>1.570712387378669</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.515664391162998</v>
@@ -33552,7 +33354,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.56170217231261</v>
+        <v>1.566279246068342</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.277789322435523</v>
@@ -33641,7 +33443,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.573848154283991</v>
+        <v>1.576451608282851</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.512002926133134</v>
@@ -33730,7 +33532,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610720506092837</v>
+        <v>1.612681181629028</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.722481385246422</v>
@@ -33819,7 +33621,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.615037381827214</v>
+        <v>1.616455337276262</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.129439179060388</v>
@@ -33908,7 +33710,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.600959420262401</v>
+        <v>1.605001137797019</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.846274943288332</v>
@@ -33997,7 +33799,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600697205408265</v>
+        <v>1.602987673514832</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.035635355598867</v>
@@ -34086,7 +33888,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.597235122410743</v>
+        <v>1.598971749136924</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.039169061803296</v>
@@ -34175,7 +33977,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.578967075244874</v>
+        <v>1.581124489088754</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.784495548786972</v>
@@ -34264,7 +34066,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.587990746040554</v>
+        <v>1.589731380699586</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.908205670460896</v>
@@ -34353,7 +34155,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.603080266059529</v>
+        <v>1.600400490161571</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.608025523284444</v>
@@ -34442,7 +34244,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622346275320083</v>
+        <v>1.616377837055337</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.787265202438405</v>
@@ -34531,7 +34333,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.649897848557983</v>
+        <v>1.636821314936811</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.527551631647273</v>
@@ -34620,7 +34422,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.646129716468694</v>
+        <v>1.634414228256304</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.810905914450409</v>
@@ -34709,7 +34511,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.639101227302365</v>
+        <v>1.624220515214133</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.898861695223295</v>
@@ -34798,7 +34600,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.632129306294311</v>
+        <v>1.618506112414443</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.97764979482481</v>
@@ -34887,7 +34689,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.629366592512939</v>
+        <v>1.614673583553194</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.028992518043949</v>
@@ -34976,7 +34778,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61263874948745</v>
+        <v>1.600946541180635</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.116054280881557</v>
@@ -35065,7 +34867,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.604552302610787</v>
+        <v>1.59181371570308</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.853358702783992</v>
@@ -35154,7 +34956,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602199772901634</v>
+        <v>1.595985861116841</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.827069635371158</v>
@@ -35243,7 +35045,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.601931644850835</v>
+        <v>1.593359209567699</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.739599561023843</v>
@@ -35332,7 +35134,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.599467084275652</v>
+        <v>1.59751471799659</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.719338160640177</v>
@@ -35421,7 +35223,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.596308699213862</v>
+        <v>1.588813189786837</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.693878814746527</v>
@@ -35510,7 +35312,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.607906907850879</v>
+        <v>1.597882731467835</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.862834803038002</v>
@@ -35599,7 +35401,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.591166356132353</v>
+        <v>1.585324577032795</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.11161655408309</v>
@@ -35688,7 +35490,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.581947214773838</v>
+        <v>1.581125720373015</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.799885504436736</v>
@@ -35777,7 +35579,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.560780575135105</v>
+        <v>1.56674076995887</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.940637931539927</v>
@@ -35866,7 +35668,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.577802704575425</v>
+        <v>1.585066708286902</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.877042059909245</v>
@@ -35955,7 +35757,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.583426202869921</v>
+        <v>1.588499505832927</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.867148392375843</v>
@@ -36044,7 +35846,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.586089588625223</v>
+        <v>1.593042828483922</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.746870050318836</v>
@@ -36133,7 +35935,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.571850484591649</v>
+        <v>1.582385938634139</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.869792217990411</v>
@@ -36222,7 +36024,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.575522716862305</v>
+        <v>1.58918151768498</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.6577900354575</v>
@@ -36311,7 +36113,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.573931675720552</v>
+        <v>1.593152782579036</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.888773438005281</v>
@@ -36400,7 +36202,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.588811196992326</v>
+        <v>1.604559970002603</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.981305495022143</v>
@@ -36489,7 +36291,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.578809031987991</v>
+        <v>1.597277021871017</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.744384717020494</v>
@@ -36578,7 +36380,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.589273683541005</v>
+        <v>1.609700273396563</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.766751302266912</v>
@@ -36667,7 +36469,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.581777610985309</v>
+        <v>1.596722171106789</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.940000364007659</v>
@@ -36756,7 +36558,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.580882427452118</v>
+        <v>1.595197664983036</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.815848465602993</v>
@@ -36845,7 +36647,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.590395208754785</v>
+        <v>1.597760553157786</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.690763508726478</v>
@@ -36934,7 +36736,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.566015874797176</v>
+        <v>1.582588490868929</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.69582800724695</v>
@@ -37023,7 +36825,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.571365389672173</v>
+        <v>1.586039460313641</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.467886250147156</v>
@@ -37112,7 +36914,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.579296153326149</v>
+        <v>1.588012282491016</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.646053031060368</v>
@@ -37201,7 +37003,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.575078444797818</v>
+        <v>1.578674450088847</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.9773149015864</v>
@@ -37290,7 +37092,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.575904209928949</v>
+        <v>1.580284659834342</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.76529563048582</v>
@@ -37379,7 +37181,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.570993639033142</v>
+        <v>1.574285472327977</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.760984586282532</v>
@@ -37468,7 +37270,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.58685799522355</v>
+        <v>1.585224437128846</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.944723192459603</v>
@@ -37557,7 +37359,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.597552772823269</v>
+        <v>1.592095082422071</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.873072346492438</v>
@@ -37843,7 +37645,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.396863645080299</v>
+        <v>1.414795611280496</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.883783412430372</v>
@@ -37932,7 +37734,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.393717185907367</v>
+        <v>1.411517466229839</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.876740345795548</v>
@@ -38021,7 +37823,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.392856392884249</v>
+        <v>1.413432262474824</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.888620183238029</v>
@@ -38110,7 +37912,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.385753790520733</v>
+        <v>1.407207357599761</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.889033085635073</v>
@@ -38199,7 +38001,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.386470246257596</v>
+        <v>1.408226602037649</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.873920195079401</v>
@@ -38288,7 +38090,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.388315703602882</v>
+        <v>1.409079798118699</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.87682488315192</v>
@@ -38377,7 +38179,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.394678365557714</v>
+        <v>1.417137893431872</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.888910873888195</v>
@@ -38466,7 +38268,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.401306527466645</v>
+        <v>1.426383460039995</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.885492303840593</v>
@@ -38555,7 +38357,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.406528000567388</v>
+        <v>1.422509003918795</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.725673568834746</v>
@@ -38644,7 +38446,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.490327286590436</v>
+        <v>1.491175715270222</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.611461873364944</v>
@@ -38733,7 +38535,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.617734445441149</v>
+        <v>1.603280718557618</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.113762933422842</v>
@@ -38822,7 +38624,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.635892848146212</v>
+        <v>1.614223899917044</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.427963556147472</v>
@@ -38911,7 +38713,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.637059676748921</v>
+        <v>1.609648758302609</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.565632171216472</v>
@@ -39000,7 +38802,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.642381661737367</v>
+        <v>1.610811565818342</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.086582965887427</v>
@@ -39089,7 +38891,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.639675904718869</v>
+        <v>1.6099275385475</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.257416952374649</v>
@@ -39178,7 +38980,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.648667738242962</v>
+        <v>1.622064150275402</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.292882326841896</v>
@@ -39267,7 +39069,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635346784792122</v>
+        <v>1.60946825885464</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.656664977347014</v>
@@ -39356,7 +39158,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.551424039615589</v>
+        <v>1.537671408734387</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.105787168278705</v>
@@ -39445,7 +39247,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.560818172386326</v>
+        <v>1.545706633702051</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.072084368845445</v>
@@ -39534,7 +39336,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.552805809906668</v>
+        <v>1.535145856597181</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.057813318236646</v>
@@ -39623,7 +39425,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.521329327942128</v>
+        <v>1.508284770487005</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.07179454514364</v>
@@ -39712,7 +39514,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.515579166134357</v>
+        <v>1.501283557825345</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.075004511059894</v>
@@ -39801,7 +39603,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.520081570317507</v>
+        <v>1.503535661829315</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.101561776514838</v>
@@ -39890,7 +39692,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.500403457454927</v>
+        <v>1.48770672180776</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.069148896770129</v>
@@ -39979,7 +39781,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.481759862704354</v>
+        <v>1.468761895406086</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.114603685908217</v>
@@ -40068,7 +39870,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.46998325423778</v>
+        <v>1.457407040406306</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.104726238057173</v>
@@ -40157,7 +39959,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.453473920142646</v>
+        <v>1.441385952630045</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.0699870553349</v>
@@ -40246,7 +40048,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.452560533522816</v>
+        <v>1.437875552195403</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.093986552444256</v>
@@ -40335,7 +40137,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.444675192247501</v>
+        <v>1.434733546044681</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.05842861816408</v>
@@ -40424,7 +40226,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.447560971186274</v>
+        <v>1.439242514981949</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.081200735506406</v>
@@ -40513,7 +40315,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.4480495685374</v>
+        <v>1.441539081648965</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.050407705097999</v>
@@ -40602,7 +40404,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.448352863229126</v>
+        <v>1.433636186827515</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.096431294103892</v>
@@ -40691,7 +40493,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.490115038595161</v>
+        <v>1.469761483019933</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.726021634173374</v>
@@ -40780,7 +40582,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.483315351626636</v>
+        <v>1.459993737053084</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.599252912025877</v>
@@ -40869,7 +40671,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.490401975654207</v>
+        <v>1.468084307284143</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.354663767390164</v>
@@ -40958,7 +40760,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.508416677491905</v>
+        <v>1.486849838458449</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.623776792358608</v>
@@ -41047,7 +40849,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509863983768595</v>
+        <v>1.48362445601776</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.675026159026308</v>
@@ -41136,7 +40938,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.502567662586328</v>
+        <v>1.47376180762706</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.723258095638715</v>
@@ -41225,7 +41027,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.510523960143311</v>
+        <v>1.475450794263689</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.631744324759027</v>
@@ -41314,7 +41116,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.53513091155114</v>
+        <v>1.500282168595473</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.581165887982764</v>
@@ -41403,7 +41205,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.539849048147061</v>
+        <v>1.504159691360668</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.690664862752483</v>
@@ -41492,7 +41294,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.548365728876698</v>
+        <v>1.514248072805197</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.564820390346847</v>
@@ -41581,7 +41383,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.543109400877425</v>
+        <v>1.514739650287687</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.741310906163775</v>
@@ -41670,7 +41472,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.528748900128073</v>
+        <v>1.503889786357118</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.683092378530425</v>
@@ -41759,7 +41561,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.507106186325111</v>
+        <v>1.480389968591964</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.608268676237335</v>
@@ -41848,7 +41650,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.500571148385694</v>
+        <v>1.470489731073514</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.463066544269673</v>
@@ -41937,7 +41739,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.499343342999143</v>
+        <v>1.475985074840548</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.84343626682165</v>
@@ -42026,7 +41828,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.500483066088931</v>
+        <v>1.475712335393213</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.729716054126142</v>
@@ -42115,7 +41917,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.501955867854701</v>
+        <v>1.478671412072081</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.762760583333753</v>
@@ -42204,7 +42006,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.494327310180724</v>
+        <v>1.471397016063508</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.86259645320299</v>
@@ -42293,7 +42095,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.500547945001718</v>
+        <v>1.480513407293195</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.76439260578434</v>
@@ -42382,7 +42184,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.491678185726806</v>
+        <v>1.475542129143106</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.761975696461892</v>
@@ -42471,7 +42273,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.48730914547142</v>
+        <v>1.474791970895889</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.791056026289477</v>
@@ -42560,7 +42362,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.494942780921839</v>
+        <v>1.481972234658373</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.777417144541406</v>
@@ -42649,7 +42451,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.49099572797273</v>
+        <v>1.470770726264097</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.852307334591433</v>
@@ -42738,7 +42540,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.479977784003408</v>
+        <v>1.465669972987216</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.716336212076683</v>
@@ -42827,7 +42629,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.467874724192862</v>
+        <v>1.453805836539149</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.708670853465343</v>
@@ -42916,7 +42718,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.474809268301847</v>
+        <v>1.45654456961724</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.734704140466583</v>
@@ -43005,7 +42807,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.479846824102602</v>
+        <v>1.460828656328112</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.6406027523804</v>
@@ -43094,7 +42896,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.490396395756636</v>
+        <v>1.473803106212232</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.931513807201229</v>
@@ -43183,7 +42985,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.496377931757984</v>
+        <v>1.479736912340869</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.783044086611871</v>
@@ -43272,7 +43074,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.500169079568642</v>
+        <v>1.480347808386573</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.569499766568303</v>
@@ -43361,7 +43163,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.514410221638442</v>
+        <v>1.496034059609901</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.685785667674239</v>
@@ -43450,7 +43252,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.512001264290174</v>
+        <v>1.494801507500302</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.873407939338688</v>
@@ -43539,7 +43341,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.520674727980753</v>
+        <v>1.50129459763019</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.853373318498138</v>
@@ -43628,7 +43430,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.500964666291696</v>
+        <v>1.478418574383615</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.699799736639652</v>
@@ -43717,7 +43519,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.50327429024275</v>
+        <v>1.479909565146587</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.925486667901521</v>
@@ -43806,7 +43608,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.490957163986617</v>
+        <v>1.47098857615688</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.830881442297204</v>
@@ -43895,7 +43697,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.487128556935061</v>
+        <v>1.467830855964503</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.908289251480014</v>
@@ -43984,7 +43786,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.503431532095125</v>
+        <v>1.484695713606077</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.774422058675486</v>
@@ -44073,7 +43875,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.496536768488532</v>
+        <v>1.475484964692578</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.608839342824899</v>
@@ -44162,7 +43964,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.47820639539191</v>
+        <v>1.462911685821987</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.253650603433241</v>
@@ -44251,7 +44053,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.458046317427091</v>
+        <v>1.445464023590726</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.233187936160622</v>
@@ -44340,7 +44142,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.453615503329531</v>
+        <v>1.441234230728413</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.272567565164438</v>
@@ -44429,7 +44231,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.440179497333562</v>
+        <v>1.427044982554093</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.306476128942637</v>
@@ -44518,7 +44320,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.439143366659896</v>
+        <v>1.424839285909468</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.353205544044735</v>
@@ -44804,7 +44606,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.343395319880079</v>
+        <v>1.358711859064454</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.538891801369113</v>
@@ -44893,7 +44695,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.35916020160944</v>
+        <v>1.374187869823122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.427166911899404</v>
@@ -44982,7 +44784,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.408018863751413</v>
+        <v>1.425146981775606</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.404568863984777</v>
@@ -45071,7 +44873,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.439418305824172</v>
+        <v>1.456950950728353</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.247127776483995</v>
@@ -45160,7 +44962,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.478093715901701</v>
+        <v>1.494545394098327</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.20055942201048</v>
@@ -45249,7 +45051,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.484925602221584</v>
+        <v>1.500997833010777</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.168613570768097</v>
@@ -45338,7 +45140,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.480994209710784</v>
+        <v>1.503162342008411</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.292269462431932</v>
@@ -45427,7 +45229,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.47457063903748</v>
+        <v>1.49028280902229</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.373171561676038</v>
@@ -45516,7 +45318,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.448401789554312</v>
+        <v>1.467397820914737</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.405657629838404</v>
@@ -45605,7 +45407,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.453334760288289</v>
+        <v>1.475403453861859</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.441002139408541</v>
@@ -45694,7 +45496,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.442016390484156</v>
+        <v>1.46682808290043</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.411600836311832</v>
@@ -45783,7 +45585,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.465977138968034</v>
+        <v>1.491900686178053</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.397526729548648</v>
@@ -45872,7 +45674,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.482746422977399</v>
+        <v>1.505145686386947</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.561288339511267</v>
@@ -45961,7 +45763,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.485777091978622</v>
+        <v>1.514106541820865</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.436356920583044</v>
@@ -46050,7 +45852,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.467790507381772</v>
+        <v>1.493486154171876</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.456785585043439</v>
@@ -46139,7 +45941,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.46633952668446</v>
+        <v>1.494060807925645</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.441994652191992</v>
@@ -46228,7 +46030,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.461232683741856</v>
+        <v>1.489263697837674</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.455331142641785</v>
@@ -46317,7 +46119,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.424470905263524</v>
+        <v>1.450970096601711</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.460489320084633</v>
@@ -46406,7 +46208,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.436843248551544</v>
+        <v>1.455561080323416</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.454420557558436</v>
@@ -46495,7 +46297,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.442271485723861</v>
+        <v>1.464715074416647</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.369202800912584</v>
@@ -46584,7 +46386,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.477217233032203</v>
+        <v>1.495236260237998</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.141369254982314</v>
@@ -46673,7 +46475,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.514534649106772</v>
+        <v>1.532982294589457</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.341643637266833</v>
@@ -46762,7 +46564,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.539340735041271</v>
+        <v>1.560623358472758</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.407170437814239</v>
@@ -46851,7 +46653,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55021430012412</v>
+        <v>1.568350584214302</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.378353344194862</v>
@@ -46940,7 +46742,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55049794463468</v>
+        <v>1.569491453597243</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.347769110795211</v>
@@ -47029,7 +46831,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.520100416585686</v>
+        <v>1.542053155652882</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.482929475703835</v>
@@ -47118,7 +46920,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.484691023417339</v>
+        <v>1.509037872491082</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.661446117461765</v>
@@ -47207,7 +47009,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.479217234623146</v>
+        <v>1.503954578194379</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.646161052254639</v>
@@ -47296,7 +47098,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.479883464658706</v>
+        <v>1.503474055368671</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.477147515863825</v>
@@ -47385,7 +47187,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.498402660582429</v>
+        <v>1.523805292702625</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.58886838763082</v>
@@ -47474,7 +47276,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.489572207263343</v>
+        <v>1.514239456127781</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.39702017739331</v>
@@ -47563,7 +47365,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.514715575462916</v>
+        <v>1.535011349732496</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.407512782797343</v>
@@ -47652,7 +47454,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.54399121592138</v>
+        <v>1.56811840518583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.429718550067737</v>
@@ -47741,7 +47543,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.575199608578547</v>
+        <v>1.602539945401959</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.432253385848607</v>
@@ -47830,7 +47632,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.550116155860048</v>
+        <v>1.581349784653161</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.527190842898483</v>
@@ -47919,7 +47721,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55030188787434</v>
+        <v>1.58126283632207</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.578245963154465</v>
@@ -48008,7 +47810,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.565380234079895</v>
+        <v>1.590982608988981</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.636310615318684</v>
@@ -48097,7 +47899,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.53880189989362</v>
+        <v>1.56615258709095</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.284460237183783</v>
@@ -48186,7 +47988,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.558716285778513</v>
+        <v>1.585862442294012</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.534781137751507</v>
@@ -48275,7 +48077,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.577366562146896</v>
+        <v>1.601562286474747</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.399421513205633</v>
@@ -48364,7 +48166,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622012854069614</v>
+        <v>1.637927726353092</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.451534928012074</v>
@@ -48453,7 +48255,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.660910715663652</v>
+        <v>1.663949401959118</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.222069455110382</v>
@@ -48542,7 +48344,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.609924372181818</v>
+        <v>1.619379865859545</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.446276726846099</v>
@@ -48631,7 +48433,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.59800365294551</v>
+        <v>1.614441565682823</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.435909861898856</v>
@@ -48720,7 +48522,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.574573110198887</v>
+        <v>1.592544531883193</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.513904101415198</v>
@@ -48809,7 +48611,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.571124775780139</v>
+        <v>1.58668796343716</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.679362461444853</v>
@@ -48898,7 +48700,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.538082591152983</v>
+        <v>1.556488682660473</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.537503227534998</v>
@@ -48987,7 +48789,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530643231016436</v>
+        <v>1.545587832455765</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.500021642031764</v>
@@ -49076,7 +48878,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.506273470458129</v>
+        <v>1.524732630664876</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.562304751615198</v>
@@ -49165,7 +48967,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.505658656919692</v>
+        <v>1.522483959417239</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.449646134194543</v>
@@ -49254,7 +49056,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.504901843894789</v>
+        <v>1.522516677951207</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.434736261644833</v>
@@ -49343,7 +49145,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.486678458039244</v>
+        <v>1.503642482891194</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.298926248379216</v>
@@ -49432,7 +49234,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.497957546197712</v>
+        <v>1.504911386978565</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.412044371864501</v>
@@ -49521,7 +49323,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.441020884372817</v>
+        <v>1.455666018448881</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.442154662710653</v>
@@ -49610,7 +49412,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.414746197539928</v>
+        <v>1.43304547425231</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.477592472878972</v>
@@ -49699,7 +49501,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.377444513246814</v>
+        <v>1.398859072251673</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.442898093425314</v>
@@ -49788,7 +49590,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.398697879865541</v>
+        <v>1.419307517102193</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.418222393486103</v>
@@ -49877,7 +49679,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.424832545140821</v>
+        <v>1.444021960746122</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.309749120192544</v>
@@ -49966,7 +49768,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.419853552402266</v>
+        <v>1.44014165743636</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.327990011404973</v>
@@ -50055,7 +49857,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.392460221368039</v>
+        <v>1.411773870499338</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.463259974893725</v>
@@ -50144,7 +49946,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.390494082297661</v>
+        <v>1.411650604347152</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.27129833953868</v>
@@ -50233,7 +50035,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.382676745407547</v>
+        <v>1.409135526068733</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.488712820262057</v>
@@ -50322,7 +50124,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.392114477058178</v>
+        <v>1.420290479440817</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.374572062398561</v>
@@ -50411,7 +50213,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.369061070782578</v>
+        <v>1.39729090477307</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.477855026210201</v>
@@ -50500,7 +50302,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.371642343137364</v>
+        <v>1.40200870469058</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.412270402238448</v>
@@ -50589,7 +50391,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.363104389111444</v>
+        <v>1.392807519966131</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.42023869326014</v>
@@ -50678,7 +50480,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.361417539684027</v>
+        <v>1.390827973150925</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.356074131270166</v>
@@ -50767,7 +50569,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.374631436907868</v>
+        <v>1.399831726648501</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.178448976357083</v>
@@ -50856,7 +50658,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.36149127315205</v>
+        <v>1.397085192123591</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.364987689642487</v>
@@ -50945,7 +50747,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.37888608032296</v>
+        <v>1.414730561755408</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.186235027080422</v>
@@ -51034,7 +50836,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.398904462605814</v>
+        <v>1.433840776287948</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.397179197086439</v>
@@ -51123,7 +50925,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.390816322739622</v>
+        <v>1.428346940808377</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.412273216638108</v>
@@ -51212,7 +51014,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.394894108798019</v>
+        <v>1.430476634572285</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.263232519444178</v>
@@ -51301,7 +51103,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.403583345195178</v>
+        <v>1.441195854596197</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.485771834189434</v>
@@ -51390,7 +51192,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.441417263101359</v>
+        <v>1.475231347756329</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.370288072747437</v>
@@ -51479,7 +51281,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.467366796240985</v>
+        <v>1.499524291962076</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.426560466242493</v>
